--- a/data/EV_list_Canada.xlsx
+++ b/data/EV_list_Canada.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cars" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="161">
   <si>
     <t xml:space="preserve">Maker</t>
   </si>
@@ -395,31 +395,25 @@
     <t xml:space="preserve">If MSRP below...</t>
   </si>
   <si>
-    <t xml:space="preserve">Comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Federal rebate</t>
+    <t xml:space="preserve">Income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Federal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
   </si>
   <si>
     <t xml:space="preserve">Alberta</t>
   </si>
   <si>
-    <t xml:space="preserve">British Columbia (&lt;80k$)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
+    <t xml:space="preserve">British Columbia</t>
   </si>
   <si>
     <t xml:space="preserve">Less than 80k$ ind. income</t>
   </si>
   <si>
-    <t xml:space="preserve">British Columbia (80k-90k$)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Between 80k$ and 90k$ ind. income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">British Columbia (&gt;90k$)</t>
   </si>
   <si>
     <t xml:space="preserve">More than 90k$ ind. income</t>
@@ -920,7 +914,7 @@
   </sheetPr>
   <dimension ref="A1:F1028"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C54" activeCellId="0" sqref="C54"/>
     </sheetView>
   </sheetViews>
@@ -1937,7 +1931,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="16" t="s">
         <v>94</v>
       </c>
@@ -1957,7 +1951,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="52" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="16" t="s">
         <v>100</v>
       </c>
@@ -1977,7 +1971,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="16" t="s">
         <v>63</v>
       </c>
@@ -1997,7 +1991,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="54" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="10" t="s">
         <v>80</v>
       </c>
@@ -2017,7 +2011,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="55" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="10" t="s">
         <v>80</v>
       </c>
@@ -2037,7 +2031,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="56" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="10" t="s">
         <v>80</v>
       </c>
@@ -5036,8 +5030,8 @@
   </sheetPr>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5058,7 +5052,7 @@
       <c r="C1" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="25" t="s">
         <v>122</v>
       </c>
     </row>
@@ -5072,11 +5066,13 @@
       <c r="C2" s="26" t="n">
         <v>70000</v>
       </c>
-      <c r="D2" s="9"/>
+      <c r="D2" s="27" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B3" s="26" t="n">
         <v>0</v>
@@ -5084,17 +5080,19 @@
       <c r="C3" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="D3" s="9"/>
+      <c r="D3" s="27" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B4" s="26" t="n">
         <v>4000</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>127</v>
@@ -5102,47 +5100,49 @@
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B5" s="26" t="n">
         <v>2000</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B6" s="26" t="n">
         <v>1000</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B7" s="26" t="n">
         <v>5000</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="D7" s="9"/>
+        <v>124</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B8" s="26" t="n">
         <v>0</v>
@@ -5150,11 +5150,13 @@
       <c r="C8" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="D8" s="9"/>
+      <c r="D8" s="27" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B9" s="26" t="n">
         <v>0</v>
@@ -5162,11 +5164,13 @@
       <c r="C9" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="D9" s="9"/>
+      <c r="D9" s="27" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B10" s="26" t="n">
         <v>3000</v>
@@ -5174,11 +5178,13 @@
       <c r="C10" s="26" t="n">
         <v>55000</v>
       </c>
-      <c r="D10" s="9"/>
+      <c r="D10" s="27" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B11" s="26" t="n">
         <v>0</v>
@@ -5186,11 +5192,13 @@
       <c r="C11" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="D11" s="9"/>
+      <c r="D11" s="27" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B12" s="26" t="n">
         <v>0</v>
@@ -5198,11 +5206,13 @@
       <c r="C12" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="D12" s="9"/>
+      <c r="D12" s="27" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B13" s="26" t="n">
         <v>5000</v>
@@ -5210,11 +5220,13 @@
       <c r="C13" s="26" t="n">
         <v>55000</v>
       </c>
-      <c r="D13" s="9"/>
+      <c r="D13" s="27" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B14" s="26" t="n">
         <v>7000</v>
@@ -5222,11 +5234,13 @@
       <c r="C14" s="26" t="n">
         <v>60000</v>
       </c>
-      <c r="D14" s="9"/>
+      <c r="D14" s="27" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B15" s="26" t="n">
         <v>0</v>
@@ -5234,11 +5248,13 @@
       <c r="C15" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="D15" s="9"/>
+      <c r="D15" s="27" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B16" s="26" t="n">
         <v>0</v>
@@ -5246,7 +5262,9 @@
       <c r="C16" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="D16" s="9"/>
+      <c r="D16" s="27" t="s">
+        <v>124</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5267,7 +5285,7 @@
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5281,12 +5299,12 @@
         <v>119</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="29" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B2" s="30" t="n">
         <v>0.05</v>
@@ -5294,7 +5312,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="29" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B3" s="30" t="n">
         <v>0</v>
@@ -5302,7 +5320,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="29" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B4" s="30" t="n">
         <v>0.07</v>
@@ -5310,7 +5328,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="29" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="B5" s="30" t="n">
         <v>0.07</v>
@@ -5321,15 +5339,15 @@
         <v>130</v>
       </c>
       <c r="B6" s="30" t="n">
-        <v>0.07</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="29" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="B7" s="30" t="n">
-        <v>0.07</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5337,7 +5355,7 @@
         <v>132</v>
       </c>
       <c r="B8" s="30" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5361,7 +5379,7 @@
         <v>135</v>
       </c>
       <c r="B11" s="30" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5369,7 +5387,7 @@
         <v>136</v>
       </c>
       <c r="B12" s="30" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5377,7 +5395,7 @@
         <v>137</v>
       </c>
       <c r="B13" s="30" t="n">
-        <v>0.08</v>
+        <v>0.09975</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5385,7 +5403,7 @@
         <v>138</v>
       </c>
       <c r="B14" s="30" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5393,25 +5411,11 @@
         <v>139</v>
       </c>
       <c r="B15" s="30" t="n">
-        <v>0.09975</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="B16" s="30" t="n">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="B17" s="30" t="n">
         <v>0</v>
       </c>
     </row>
+    <row r="16" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="18" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="19" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="20" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -5438,9 +5442,9 @@
     <row r="41" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="42" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="43" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="44" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="45" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="46" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="47" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="48" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="49" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -5448,8 +5452,8 @@
     <row r="51" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="52" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="53" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="54" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="55" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5467,10 +5471,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5483,12 +5487,12 @@
         <v>119</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B2" s="13" t="n">
         <v>146</v>
@@ -5496,7 +5500,7 @@
     </row>
     <row r="3" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B3" s="13" t="n">
         <v>187.8</v>
@@ -5504,10 +5508,10 @@
     </row>
     <row r="4" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="13" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="B4" s="13" t="n">
-        <v>187.8</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5515,15 +5519,15 @@
         <v>130</v>
       </c>
       <c r="B5" s="13" t="n">
-        <v>187.8</v>
+        <v>159.1</v>
       </c>
     </row>
     <row r="6" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="B6" s="13" t="n">
-        <v>163</v>
+        <v>165.5</v>
       </c>
     </row>
     <row r="7" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5531,7 +5535,7 @@
         <v>132</v>
       </c>
       <c r="B7" s="13" t="n">
-        <v>159.1</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5539,70 +5543,54 @@
         <v>133</v>
       </c>
       <c r="B8" s="13" t="n">
-        <v>165.5</v>
-      </c>
-    </row>
-    <row r="9" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>151.4</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="13" t="s">
         <v>134</v>
       </c>
       <c r="B9" s="13" t="n">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="10" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>158.8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="13" t="s">
         <v>135</v>
       </c>
       <c r="B10" s="13" t="n">
-        <v>151.4</v>
-      </c>
-    </row>
-    <row r="11" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>156.1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="13" t="s">
         <v>136</v>
       </c>
       <c r="B11" s="13" t="n">
-        <v>158.8</v>
-      </c>
-    </row>
-    <row r="12" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>161.2</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="13" t="s">
         <v>137</v>
       </c>
       <c r="B12" s="13" t="n">
-        <v>156.1</v>
-      </c>
-    </row>
-    <row r="13" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>166.4</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="13" t="s">
         <v>138</v>
       </c>
       <c r="B13" s="13" t="n">
-        <v>161.2</v>
-      </c>
-    </row>
-    <row r="14" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="13" t="s">
         <v>139</v>
       </c>
       <c r="B14" s="13" t="n">
-        <v>166.4</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="B15" s="13" t="n">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="B16" s="13" t="n">
         <v>183.9</v>
       </c>
     </row>
@@ -5622,10 +5610,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5638,12 +5626,12 @@
         <v>119</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="29" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B2" s="29" t="n">
         <v>16.6</v>
@@ -5651,7 +5639,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="29" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B3" s="29" t="n">
         <v>12.6</v>
@@ -5659,10 +5647,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="29" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="B4" s="29" t="n">
-        <v>12.6</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5670,15 +5658,15 @@
         <v>130</v>
       </c>
       <c r="B5" s="29" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="29" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="B6" s="29" t="n">
-        <v>9.9</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5686,7 +5674,7 @@
         <v>132</v>
       </c>
       <c r="B7" s="29" t="n">
-        <v>12.7</v>
+        <v>38.2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5694,7 +5682,7 @@
         <v>133</v>
       </c>
       <c r="B8" s="29" t="n">
-        <v>13.8</v>
+        <v>17.1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5702,7 +5690,7 @@
         <v>134</v>
       </c>
       <c r="B9" s="29" t="n">
-        <v>38.2</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5710,7 +5698,7 @@
         <v>135</v>
       </c>
       <c r="B10" s="29" t="n">
-        <v>17.1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5718,7 +5706,7 @@
         <v>136</v>
       </c>
       <c r="B11" s="29" t="n">
-        <v>37.5</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5726,7 +5714,7 @@
         <v>137</v>
       </c>
       <c r="B12" s="29" t="n">
-        <v>13</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5734,7 +5722,7 @@
         <v>138</v>
       </c>
       <c r="B13" s="29" t="n">
-        <v>17.4</v>
+        <v>18.1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5742,22 +5730,6 @@
         <v>139</v>
       </c>
       <c r="B14" s="29" t="n">
-        <v>7.3</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="B15" s="29" t="n">
-        <v>18.1</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="B16" s="29" t="n">
         <v>18.7</v>
       </c>
     </row>
@@ -5790,10 +5762,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="32" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5939,10 +5911,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="35" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C1" s="36" t="s">
         <v>5</v>
@@ -5950,46 +5922,46 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="38" t="s">
         <v>151</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="39" t="s">
         <v>154</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="39" t="s">
         <v>157</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="39" t="s">
         <v>160</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>161</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/data/EV_list_Canada.xlsx
+++ b/data/EV_list_Canada.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="164">
   <si>
     <t xml:space="preserve">Maker</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t xml:space="preserve">SUV</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
   </si>
   <si>
     <t xml:space="preserve">Toyota</t>
@@ -386,7 +383,7 @@
     <t xml:space="preserve">Performance</t>
   </si>
   <si>
-    <t xml:space="preserve">Province/Territory</t>
+    <t xml:space="preserve">Region</t>
   </si>
   <si>
     <t xml:space="preserve">Maximum amount</t>
@@ -449,21 +446,42 @@
     <t xml:space="preserve">Yukon</t>
   </si>
   <si>
+    <t xml:space="preserve">Source: plugndrive.ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.plugndrive.ca/electric-vehicle-incentives/ </t>
+  </si>
+  <si>
     <t xml:space="preserve">Rate</t>
   </si>
   <si>
-    <t xml:space="preserve">Federal tax</t>
-  </si>
-  <si>
     <t xml:space="preserve">Manitoba</t>
   </si>
   <si>
+    <t xml:space="preserve">Source: canadadrives.ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.canadadrives.ca/blog/car-guide/car-sales-tax-across-canada</t>
+  </si>
+  <si>
     <t xml:space="preserve">cents/L</t>
   </si>
   <si>
+    <t xml:space="preserve">Source: Statistics Canada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www150.statcan.gc.ca/t1/tbl1/en/tv.action?pid=1810000101&amp;pickMembers%5B0%5D=2.2&amp;cubeTimeFrame.startMonth=01&amp;cubeTimeFrame.startYear=2023&amp;cubeTimeFrame.endMonth=06&amp;cubeTimeFrame.endYear=2023&amp;referencePeriods=20230101%2C20230601</t>
+  </si>
+  <si>
     <t xml:space="preserve">cents/kWh</t>
   </si>
   <si>
+    <t xml:space="preserve">Source: energyhub.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.energyhub.org/electricity-prices/</t>
+  </si>
+  <si>
     <t xml:space="preserve">Brand</t>
   </si>
   <si>
@@ -491,25 +509,16 @@
     <t xml:space="preserve">canadadrives.ca</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.canadadrives.ca/blog/car-guide/car-sales-tax-across-canada</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gas</t>
   </si>
   <si>
     <t xml:space="preserve">Statistics Canada</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www150.statcan.gc.ca/t1/tbl1/en/tv.action?pid=1810000101&amp;pickMembers%5B0%5D=2.2&amp;cubeTimeFrame.startMonth=01&amp;cubeTimeFrame.startYear=2023&amp;cubeTimeFrame.endMonth=06&amp;cubeTimeFrame.endYear=2023&amp;referencePeriods=20230101%2C20230601</t>
-  </si>
-  <si>
     <t xml:space="preserve">Electricity</t>
   </si>
   <si>
     <t xml:space="preserve">energyhub.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.energyhub.org/electricity-prices/</t>
   </si>
 </sst>
 </file>
@@ -523,7 +532,7 @@
     <numFmt numFmtId="167" formatCode="0.00%"/>
     <numFmt numFmtId="168" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -594,6 +603,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -673,7 +687,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -690,7 +704,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -706,11 +720,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -726,7 +740,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -738,15 +752,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -762,75 +776,63 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -915,7 +917,7 @@
   <dimension ref="A1:F1028"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C54" activeCellId="0" sqref="C54"/>
+      <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -925,7 +927,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="18.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="20.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="43.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="43.39"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -984,19 +986,17 @@
       <c r="E3" s="7" t="n">
         <v>25000</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>17</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>9</v>
@@ -1005,18 +1005,18 @@
         <v>25565</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>9</v>
@@ -1025,18 +1025,18 @@
         <v>28240</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>9</v>
@@ -1044,16 +1044,14 @@
       <c r="E6" s="7" t="n">
         <v>28595</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>8</v>
@@ -1065,38 +1063,38 @@
         <v>31148</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="C8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="E8" s="7" t="n">
         <v>38995</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>9</v>
@@ -1105,139 +1103,135 @@
         <v>31085</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="D10" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="12" t="n">
         <f aca="false">30000*1.32</f>
         <v>39600</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="C11" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>41</v>
-      </c>
       <c r="D11" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" s="7" t="n">
         <v>42650</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>44</v>
-      </c>
       <c r="D12" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="7" t="n">
         <v>43147</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>47</v>
-      </c>
       <c r="D13" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" s="7" t="n">
         <v>43095</v>
       </c>
-      <c r="F13" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>29</v>
-      </c>
       <c r="C14" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" s="7" t="n">
         <v>43995</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="C15" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="D15" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" s="7" t="n">
         <v>44084</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>9</v>
@@ -1246,61 +1240,59 @@
         <v>36865</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>57</v>
-      </c>
       <c r="D17" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17" s="11" t="n">
         <v>44995</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="F17" s="9"/>
     </row>
     <row r="18" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>59</v>
-      </c>
       <c r="D18" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" s="7" t="n">
         <v>47243</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="C19" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19" s="12" t="n">
         <f aca="false">35000*1.32</f>
@@ -1310,53 +1302,51 @@
     </row>
     <row r="20" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20" s="7" t="n">
         <v>46647</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>64</v>
-      </c>
       <c r="C21" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="E21" s="7" t="n">
         <v>46710</v>
       </c>
-      <c r="F21" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="F21" s="9"/>
     </row>
     <row r="22" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>9</v>
@@ -1365,47 +1355,47 @@
         <v>39665</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>29</v>
-      </c>
       <c r="C23" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E23" s="7" t="n">
         <v>47795</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>68</v>
-      </c>
       <c r="D24" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E24" s="7" t="n">
         <v>48035</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1413,39 +1403,39 @@
         <v>6</v>
       </c>
       <c r="B25" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>71</v>
-      </c>
       <c r="D25" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E25" s="7" t="n">
         <v>51643</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>50</v>
-      </c>
       <c r="C26" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E26" s="7" t="n">
         <v>49834</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1453,180 +1443,172 @@
         <v>6</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E27" s="7" t="n">
         <v>52343</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="C28" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E28" s="12" t="n">
         <f aca="false">46200+5000</f>
         <v>51200</v>
       </c>
-      <c r="F28" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="F28" s="9"/>
     </row>
     <row r="29" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E29" s="7" t="n">
         <v>53035</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E30" s="7" t="n">
         <v>52995</v>
       </c>
-      <c r="F30" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="F30" s="9"/>
     </row>
     <row r="31" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E31" s="11" t="n">
         <v>55643</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E32" s="11" t="n">
         <v>54997</v>
       </c>
-      <c r="F32" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="F32" s="9"/>
     </row>
     <row r="33" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="C33" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C33" s="14" t="s">
-        <v>82</v>
-      </c>
       <c r="D33" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E33" s="11" t="n">
         <v>54990</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E34" s="11" t="n">
         <v>54995</v>
       </c>
-      <c r="F34" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="F34" s="9"/>
     </row>
     <row r="35" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E35" s="11" t="n">
         <v>57643</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1634,219 +1616,213 @@
         <v>6</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E36" s="11" t="n">
         <v>57643</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B37" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C37" s="10" t="s">
-        <v>89</v>
-      </c>
       <c r="D37" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E37" s="15" t="n">
         <v>55838</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="C38" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C38" s="10" t="s">
-        <v>93</v>
-      </c>
       <c r="D38" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E38" s="11" t="n">
         <v>56995</v>
       </c>
-      <c r="F38" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="F38" s="9"/>
     </row>
     <row r="39" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="C39" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C39" s="10" t="s">
-        <v>96</v>
-      </c>
       <c r="D39" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E39" s="11" t="n">
         <v>57450</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E40" s="11" t="n">
         <v>58035</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E41" s="11" t="n">
         <v>57995</v>
       </c>
-      <c r="F41" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="F41" s="9"/>
     </row>
     <row r="42" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E42" s="11" t="n">
         <v>60643</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E43" s="11" t="n">
         <v>59597</v>
       </c>
-      <c r="F43" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="F43" s="9"/>
     </row>
     <row r="44" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B44" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="C44" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="C44" s="16" t="s">
-        <v>102</v>
-      </c>
       <c r="D44" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E44" s="11" t="n">
         <v>58939.3</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E45" s="11" t="n">
         <v>59990</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B46" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="C46" s="16" t="s">
-        <v>107</v>
-      </c>
       <c r="D46" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E46" s="11" t="n">
         <v>59950</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" s="4" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1854,201 +1830,199 @@
         <v>6</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E47" s="11" t="n">
         <f aca="false">57643+6000</f>
         <v>63643</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E48" s="19" t="n">
         <v>63438</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B49" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="C49" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="C49" s="16" t="s">
-        <v>113</v>
-      </c>
       <c r="D49" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E49" s="11" t="n">
         <v>63400</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E50" s="12" t="n">
         <f aca="false">E49+5000</f>
         <v>68400</v>
       </c>
-      <c r="F50" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="F50" s="9"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B51" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="16" t="s">
-        <v>95</v>
-      </c>
       <c r="C51" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E51" s="11" t="n">
         <v>65450</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B52" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="B52" s="16" t="s">
-        <v>101</v>
-      </c>
       <c r="C52" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E52" s="11" t="n">
         <v>65339.3</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E53" s="19" t="n">
         <v>68000</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E54" s="11" t="n">
         <v>69990</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B55" s="14" t="s">
-        <v>81</v>
-      </c>
       <c r="C55" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E55" s="19" t="n">
         <v>72990</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E56" s="7" t="n">
         <v>76290</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5028,242 +5002,250 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
+      <selection pane="topLeft" activeCell="T50" activeCellId="0" sqref="T50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="23" width="22.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="19.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="22.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="19.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="27.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="D1" s="24" t="s">
         <v>121</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="25" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C2" s="25" t="n">
+        <v>70000</v>
+      </c>
+      <c r="D2" s="26" t="s">
         <v>123</v>
-      </c>
-      <c r="B2" s="26" t="n">
-        <v>5000</v>
-      </c>
-      <c r="C2" s="26" t="n">
-        <v>70000</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" s="26" t="n">
+        <v>124</v>
+      </c>
+      <c r="B3" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>124</v>
+      <c r="C3" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="25" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>126</v>
-      </c>
-      <c r="B4" s="26" t="n">
-        <v>4000</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="B5" s="26" t="n">
+        <v>125</v>
+      </c>
+      <c r="B5" s="25" t="n">
         <v>2000</v>
       </c>
-      <c r="C5" s="27" t="s">
-        <v>124</v>
+      <c r="C5" s="26" t="s">
+        <v>123</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="B6" s="26" t="n">
+        <v>125</v>
+      </c>
+      <c r="B6" s="25" t="n">
         <v>1000</v>
       </c>
-      <c r="C6" s="27" t="s">
-        <v>124</v>
+      <c r="C6" s="26" t="s">
+        <v>123</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="B7" s="26" t="n">
+        <v>129</v>
+      </c>
+      <c r="B7" s="25" t="n">
         <v>5000</v>
       </c>
-      <c r="C7" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>124</v>
+      <c r="C7" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="B8" s="26" t="n">
+        <v>130</v>
+      </c>
+      <c r="B8" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="C8" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>124</v>
+      <c r="C8" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="B9" s="26" t="n">
+        <v>131</v>
+      </c>
+      <c r="B9" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="C9" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>124</v>
+      <c r="C9" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="B10" s="26" t="n">
+        <v>132</v>
+      </c>
+      <c r="B10" s="25" t="n">
         <v>3000</v>
       </c>
-      <c r="C10" s="26" t="n">
+      <c r="C10" s="25" t="n">
         <v>55000</v>
       </c>
-      <c r="D10" s="27" t="s">
-        <v>124</v>
+      <c r="D10" s="26" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="B11" s="26" t="n">
+        <v>133</v>
+      </c>
+      <c r="B11" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="C11" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>124</v>
+      <c r="C11" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="B12" s="26" t="n">
+        <v>134</v>
+      </c>
+      <c r="B12" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="C12" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>124</v>
+      <c r="C12" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="B13" s="26" t="n">
+        <v>135</v>
+      </c>
+      <c r="B13" s="25" t="n">
         <v>5000</v>
       </c>
-      <c r="C13" s="26" t="n">
+      <c r="C13" s="25" t="n">
         <v>55000</v>
       </c>
-      <c r="D13" s="27" t="s">
-        <v>124</v>
+      <c r="D13" s="26" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="B14" s="26" t="n">
+        <v>136</v>
+      </c>
+      <c r="B14" s="25" t="n">
         <v>7000</v>
       </c>
-      <c r="C14" s="26" t="n">
+      <c r="C14" s="25" t="n">
         <v>60000</v>
       </c>
-      <c r="D14" s="27" t="s">
-        <v>124</v>
+      <c r="D14" s="26" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="B15" s="26" t="n">
+        <v>137</v>
+      </c>
+      <c r="B15" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="C15" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>124</v>
+      <c r="C15" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B16" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>124</v>
+      <c r="B17" s="27" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -5285,26 +5267,26 @@
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="28" t="s">
-        <v>119</v>
+      <c r="A1" s="23" t="s">
+        <v>118</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="29" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="B2" s="30" t="n">
         <v>0.05</v>
@@ -5312,7 +5294,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B3" s="30" t="n">
         <v>0</v>
@@ -5320,7 +5302,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B4" s="30" t="n">
         <v>0.07</v>
@@ -5336,7 +5318,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B6" s="30" t="n">
         <v>0.1</v>
@@ -5344,7 +5326,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B7" s="30" t="n">
         <v>0.1</v>
@@ -5352,7 +5334,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B8" s="30" t="n">
         <v>0</v>
@@ -5360,7 +5342,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B9" s="30" t="n">
         <v>0.1</v>
@@ -5368,7 +5350,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B10" s="30" t="n">
         <v>0</v>
@@ -5376,7 +5358,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B11" s="30" t="n">
         <v>0.08</v>
@@ -5384,7 +5366,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B12" s="30" t="n">
         <v>0.1</v>
@@ -5392,7 +5374,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B13" s="30" t="n">
         <v>0.09975</v>
@@ -5400,7 +5382,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B14" s="30" t="n">
         <v>0.06</v>
@@ -5408,13 +5390,20 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B15" s="30" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>144</v>
+      </c>
+    </row>
     <row r="17" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="18" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="19" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -5471,28 +5460,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.65"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>143</v>
+      <c r="A1" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B2" s="13" t="n">
         <v>146</v>
@@ -5500,7 +5489,7 @@
     </row>
     <row r="3" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B3" s="13" t="n">
         <v>187.8</v>
@@ -5516,7 +5505,7 @@
     </row>
     <row r="5" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B5" s="13" t="n">
         <v>159.1</v>
@@ -5524,7 +5513,7 @@
     </row>
     <row r="6" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B6" s="13" t="n">
         <v>165.5</v>
@@ -5532,7 +5521,7 @@
     </row>
     <row r="7" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B7" s="13" t="n">
         <v>166</v>
@@ -5540,7 +5529,7 @@
     </row>
     <row r="8" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B8" s="13" t="n">
         <v>151.4</v>
@@ -5548,7 +5537,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B9" s="13" t="n">
         <v>158.8</v>
@@ -5556,7 +5545,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B10" s="13" t="n">
         <v>156.1</v>
@@ -5564,7 +5553,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B11" s="13" t="n">
         <v>161.2</v>
@@ -5572,7 +5561,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B12" s="13" t="n">
         <v>166.4</v>
@@ -5580,7 +5569,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B13" s="13" t="n">
         <v>160</v>
@@ -5588,10 +5577,18 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B14" s="13" t="n">
         <v>183.9</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -5610,28 +5607,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="28" t="s">
-        <v>119</v>
+      <c r="A1" s="23" t="s">
+        <v>118</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B2" s="29" t="n">
         <v>16.6</v>
@@ -5639,7 +5636,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B3" s="29" t="n">
         <v>12.6</v>
@@ -5655,7 +5652,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B5" s="29" t="n">
         <v>12.7</v>
@@ -5663,7 +5660,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B6" s="29" t="n">
         <v>13.8</v>
@@ -5671,7 +5668,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B7" s="29" t="n">
         <v>38.2</v>
@@ -5679,7 +5676,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B8" s="29" t="n">
         <v>17.1</v>
@@ -5687,7 +5684,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B9" s="29" t="n">
         <v>37.5</v>
@@ -5695,7 +5692,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B10" s="29" t="n">
         <v>13</v>
@@ -5703,7 +5700,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B11" s="29" t="n">
         <v>17.4</v>
@@ -5711,7 +5708,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B12" s="29" t="n">
         <v>7.3</v>
@@ -5719,7 +5716,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B13" s="29" t="n">
         <v>18.1</v>
@@ -5727,10 +5724,18 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B14" s="29" t="n">
         <v>18.7</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -5752,51 +5757,51 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D62" activeCellId="0" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>146</v>
+      <c r="A1" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="B2" s="33" t="n">
+        <v>110</v>
+      </c>
+      <c r="B2" s="34" t="n">
         <v>2700</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="33" t="n">
+        <v>35</v>
+      </c>
+      <c r="B3" s="34" t="n">
         <v>1800</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="B4" s="33" t="n">
+        <v>90</v>
+      </c>
+      <c r="B4" s="34" t="n">
         <v>2195</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="33" t="n">
+        <v>18</v>
+      </c>
+      <c r="B5" s="34" t="n">
         <v>2075</v>
       </c>
     </row>
@@ -5804,79 +5809,79 @@
       <c r="A6" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="33" t="n">
+      <c r="B6" s="34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="33" t="n">
+        <v>22</v>
+      </c>
+      <c r="B7" s="34" t="n">
         <v>2000</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="33" t="n">
+        <v>38</v>
+      </c>
+      <c r="B8" s="34" t="n">
         <v>1995</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="33" t="n">
+        <v>48</v>
+      </c>
+      <c r="B9" s="34" t="n">
         <v>2215</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="B10" s="33" t="n">
+        <v>93</v>
+      </c>
+      <c r="B10" s="34" t="n">
         <v>2300</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" s="33" t="n">
+        <v>79</v>
+      </c>
+      <c r="B11" s="34" t="n">
         <v>1880</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="33" t="n">
+        <v>14</v>
+      </c>
+      <c r="B12" s="34" t="n">
         <v>1890</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="33" t="n">
+        <v>62</v>
+      </c>
+      <c r="B13" s="34" t="n">
         <v>2435</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="33" t="n">
+        <v>27</v>
+      </c>
+      <c r="B14" s="34" t="n">
         <v>2000</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="B15" s="33" t="n">
+        <v>99</v>
+      </c>
+      <c r="B15" s="34" t="n">
         <v>3195</v>
       </c>
     </row>
@@ -5899,69 +5904,69 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="34" width="50.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="50.49"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="B2" s="37" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="31" t="s">
         <v>150</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>159</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/data/EV_list_Canada.xlsx
+++ b/data/EV_list_Canada.xlsx
@@ -392,7 +392,7 @@
     <t xml:space="preserve">If MSRP below...</t>
   </si>
   <si>
-    <t xml:space="preserve">Income</t>
+    <t xml:space="preserve">Condition</t>
   </si>
   <si>
     <t xml:space="preserve">Federal</t>
@@ -917,7 +917,7 @@
   <dimension ref="A1:F1028"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5005,7 +5005,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T50" activeCellId="0" sqref="T50"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
